--- a/assets/TODOGRAFICO DEL NORESTE (Catalogo).xlsx.xlsx
+++ b/assets/TODOGRAFICO DEL NORESTE (Catalogo).xlsx.xlsx
@@ -4181,9 +4181,6 @@
     <t xml:space="preserve">COSTOS                                                      </t>
   </si>
   <si>
-    <t>Resultados Gasto</t>
-  </si>
-  <si>
     <t>500-00-00</t>
   </si>
   <si>
@@ -5568,6 +5565,9 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>Resultados Gastos</t>
   </si>
 </sst>
 </file>
@@ -5902,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="K648" sqref="K648"/>
+    <sheetView tabSelected="1" topLeftCell="A931" workbookViewId="0">
+      <selection activeCell="B958" sqref="B958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5911,7 +5911,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" customWidth="1"/>
@@ -21898,7 +21898,7 @@
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B615" s="5" t="s">
         <v>1217</v>
@@ -21928,7 +21928,7 @@
         <v>1220</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D616" s="5" t="s">
         <v>1218</v>
@@ -22058,7 +22058,7 @@
         <v>1230</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D621" s="5" t="s">
         <v>1218</v>
@@ -22162,7 +22162,7 @@
         <v>1237</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D625" s="5" t="s">
         <v>1218</v>
@@ -22214,7 +22214,7 @@
         <v>1240</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D627" s="5" t="s">
         <v>1218</v>
@@ -22266,7 +22266,7 @@
         <v>1243</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D629" s="5" t="s">
         <v>1218</v>
@@ -22578,7 +22578,7 @@
         <v>1267</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D641" s="5" t="s">
         <v>1218</v>
@@ -24163,7 +24163,7 @@
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E702" s="5" t="s">
         <v>12</v>
@@ -24180,7 +24180,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B703" s="5" t="s">
         <v>1383</v>
@@ -24189,7 +24189,7 @@
         <v>50</v>
       </c>
       <c r="D703" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>12</v>
@@ -24206,16 +24206,16 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B704" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="B704" s="5" t="s">
-        <v>1387</v>
-      </c>
       <c r="C704" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E704" s="5" t="s">
         <v>12</v>
@@ -24232,16 +24232,16 @@
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B705" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="B705" s="5" t="s">
-        <v>1389</v>
-      </c>
       <c r="C705" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D705" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E705" s="5" t="s">
         <v>12</v>
@@ -24258,16 +24258,16 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B706" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="B706" s="5" t="s">
-        <v>1391</v>
-      </c>
       <c r="C706" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D706" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E706" s="5" t="s">
         <v>12</v>
@@ -24284,16 +24284,16 @@
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B707" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="B707" s="5" t="s">
-        <v>1393</v>
-      </c>
       <c r="C707" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E707" s="5" t="s">
         <v>12</v>
@@ -24310,16 +24310,16 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B708" s="5" t="s">
         <v>1394</v>
       </c>
-      <c r="B708" s="5" t="s">
-        <v>1395</v>
-      </c>
       <c r="C708" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D708" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E708" s="5" t="s">
         <v>12</v>
@@ -24336,16 +24336,16 @@
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B709" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="B709" s="5" t="s">
-        <v>1397</v>
-      </c>
       <c r="C709" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D709" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E709" s="5" t="s">
         <v>12</v>
@@ -24362,16 +24362,16 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B710" s="5" t="s">
         <v>1398</v>
       </c>
-      <c r="B710" s="5" t="s">
-        <v>1399</v>
-      </c>
       <c r="C710" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D710" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E710" s="5" t="s">
         <v>12</v>
@@ -24388,16 +24388,16 @@
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B711" s="5" t="s">
         <v>1400</v>
       </c>
-      <c r="B711" s="5" t="s">
-        <v>1401</v>
-      </c>
       <c r="C711" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D711" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E711" s="5" t="s">
         <v>12</v>
@@ -24414,16 +24414,16 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B712" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="B712" s="5" t="s">
-        <v>1403</v>
-      </c>
       <c r="C712" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D712" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E712" s="5" t="s">
         <v>12</v>
@@ -24440,16 +24440,16 @@
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B713" s="5" t="s">
         <v>1404</v>
-      </c>
-      <c r="B713" s="5" t="s">
-        <v>1405</v>
       </c>
       <c r="C713" s="2">
         <v>50</v>
       </c>
       <c r="D713" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E713" s="5" t="s">
         <v>12</v>
@@ -24466,16 +24466,16 @@
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B714" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="B714" s="5" t="s">
-        <v>1407</v>
-      </c>
       <c r="C714" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E714" s="5" t="s">
         <v>12</v>
@@ -24492,16 +24492,16 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B715" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="B715" s="5" t="s">
-        <v>1409</v>
-      </c>
       <c r="C715" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D715" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E715" s="5" t="s">
         <v>12</v>
@@ -24518,14 +24518,14 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B716" s="5" t="s">
         <v>1410</v>
-      </c>
-      <c r="B716" s="5" t="s">
-        <v>1411</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E716" s="5" t="s">
         <v>12</v>
@@ -24542,16 +24542,16 @@
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C717" s="2">
         <v>60</v>
       </c>
       <c r="D717" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E717" s="5" t="s">
         <v>12</v>
@@ -24568,16 +24568,16 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B718" s="5" t="s">
         <v>957</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D718" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E718" s="5" t="s">
         <v>12</v>
@@ -24594,16 +24594,16 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B719" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="B719" s="5" t="s">
-        <v>1415</v>
-      </c>
       <c r="C719" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E719" s="5" t="s">
         <v>12</v>
@@ -24620,16 +24620,16 @@
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B720" s="5" t="s">
         <v>1416</v>
       </c>
-      <c r="B720" s="5" t="s">
-        <v>1417</v>
-      </c>
       <c r="C720" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E720" s="5" t="s">
         <v>12</v>
@@ -24646,16 +24646,16 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B721" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="B721" s="5" t="s">
-        <v>1419</v>
-      </c>
       <c r="C721" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E721" s="5" t="s">
         <v>12</v>
@@ -24672,16 +24672,16 @@
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B722" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="B722" s="5" t="s">
-        <v>1421</v>
-      </c>
       <c r="C722" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E722" s="5" t="s">
         <v>12</v>
@@ -24698,16 +24698,16 @@
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B723" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="B723" s="5" t="s">
-        <v>1423</v>
-      </c>
       <c r="C723" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D723" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E723" s="5" t="s">
         <v>12</v>
@@ -24724,16 +24724,16 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B724" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="B724" s="5" t="s">
-        <v>1425</v>
-      </c>
       <c r="C724" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D724" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E724" s="5" t="s">
         <v>12</v>
@@ -24750,16 +24750,16 @@
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B725" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="B725" s="5" t="s">
-        <v>1427</v>
-      </c>
       <c r="C725" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E725" s="5" t="s">
         <v>12</v>
@@ -24776,16 +24776,16 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B726" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="B726" s="5" t="s">
-        <v>1429</v>
-      </c>
       <c r="C726" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D726" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E726" s="5" t="s">
         <v>12</v>
@@ -24802,16 +24802,16 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B727" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="B727" s="5" t="s">
-        <v>1431</v>
-      </c>
       <c r="C727" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D727" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E727" s="5" t="s">
         <v>12</v>
@@ -24828,16 +24828,16 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B728" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="B728" s="5" t="s">
-        <v>1433</v>
-      </c>
       <c r="C728" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D728" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>12</v>
@@ -24854,16 +24854,16 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B729" s="5" t="s">
         <v>1434</v>
       </c>
-      <c r="B729" s="5" t="s">
-        <v>1435</v>
-      </c>
       <c r="C729" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D729" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E729" s="5" t="s">
         <v>12</v>
@@ -24880,16 +24880,16 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B730" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="B730" s="5" t="s">
-        <v>1437</v>
-      </c>
       <c r="C730" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E730" s="5" t="s">
         <v>12</v>
@@ -24906,16 +24906,16 @@
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B731" s="5" t="s">
         <v>1438</v>
       </c>
-      <c r="B731" s="5" t="s">
-        <v>1439</v>
-      </c>
       <c r="C731" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E731" s="5" t="s">
         <v>12</v>
@@ -24932,16 +24932,16 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B732" s="5" t="s">
         <v>1440</v>
       </c>
-      <c r="B732" s="5" t="s">
-        <v>1441</v>
-      </c>
       <c r="C732" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>12</v>
@@ -24958,16 +24958,16 @@
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B733" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="B733" s="5" t="s">
-        <v>1443</v>
-      </c>
       <c r="C733" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E733" s="5" t="s">
         <v>12</v>
@@ -24984,16 +24984,16 @@
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B734" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="B734" s="5" t="s">
-        <v>1445</v>
-      </c>
       <c r="C734" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E734" s="5" t="s">
         <v>12</v>
@@ -25010,16 +25010,16 @@
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B735" s="5" t="s">
         <v>1446</v>
       </c>
-      <c r="B735" s="5" t="s">
-        <v>1447</v>
-      </c>
       <c r="C735" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>12</v>
@@ -25036,16 +25036,16 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B736" s="5" t="s">
         <v>1448</v>
       </c>
-      <c r="B736" s="5" t="s">
-        <v>1449</v>
-      </c>
       <c r="C736" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E736" s="5" t="s">
         <v>12</v>
@@ -25062,16 +25062,16 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B737" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="B737" s="5" t="s">
-        <v>1451</v>
-      </c>
       <c r="C737" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E737" s="5" t="s">
         <v>12</v>
@@ -25088,16 +25088,16 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B738" s="5" t="s">
         <v>1452</v>
       </c>
-      <c r="B738" s="5" t="s">
-        <v>1453</v>
-      </c>
       <c r="C738" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E738" s="5" t="s">
         <v>12</v>
@@ -25114,16 +25114,16 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B739" s="5" t="s">
         <v>1454</v>
       </c>
-      <c r="B739" s="5" t="s">
-        <v>1455</v>
-      </c>
       <c r="C739" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D739" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E739" s="5" t="s">
         <v>12</v>
@@ -25140,16 +25140,16 @@
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B740" s="5" t="s">
         <v>1456</v>
       </c>
-      <c r="B740" s="5" t="s">
-        <v>1457</v>
-      </c>
       <c r="C740" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D740" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E740" s="5" t="s">
         <v>12</v>
@@ -25166,16 +25166,16 @@
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B741" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="B741" s="5" t="s">
-        <v>1459</v>
-      </c>
       <c r="C741" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>12</v>
@@ -25192,16 +25192,16 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B742" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="B742" s="5" t="s">
-        <v>1461</v>
-      </c>
       <c r="C742" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>12</v>
@@ -25218,16 +25218,16 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B743" s="5" t="s">
         <v>1462</v>
       </c>
-      <c r="B743" s="5" t="s">
-        <v>1463</v>
-      </c>
       <c r="C743" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D743" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E743" s="5" t="s">
         <v>12</v>
@@ -25244,16 +25244,16 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B744" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="B744" s="5" t="s">
-        <v>1465</v>
-      </c>
       <c r="C744" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E744" s="5" t="s">
         <v>12</v>
@@ -25270,16 +25270,16 @@
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B745" s="5" t="s">
         <v>1466</v>
       </c>
-      <c r="B745" s="5" t="s">
-        <v>1467</v>
-      </c>
       <c r="C745" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D745" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E745" s="5" t="s">
         <v>12</v>
@@ -25296,16 +25296,16 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B746" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="B746" s="5" t="s">
-        <v>1469</v>
-      </c>
       <c r="C746" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>12</v>
@@ -25322,16 +25322,16 @@
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B747" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="B747" s="5" t="s">
-        <v>1471</v>
-      </c>
       <c r="C747" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D747" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E747" s="5" t="s">
         <v>12</v>
@@ -25348,16 +25348,16 @@
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B748" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="B748" s="5" t="s">
-        <v>1473</v>
-      </c>
       <c r="C748" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D748" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E748" s="5" t="s">
         <v>12</v>
@@ -25374,16 +25374,16 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B749" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="B749" s="5" t="s">
-        <v>1475</v>
-      </c>
       <c r="C749" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D749" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E749" s="5" t="s">
         <v>12</v>
@@ -25400,16 +25400,16 @@
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B750" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="B750" s="5" t="s">
-        <v>1477</v>
-      </c>
       <c r="C750" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E750" s="5" t="s">
         <v>12</v>
@@ -25426,16 +25426,16 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B751" s="5" t="s">
         <v>1478</v>
       </c>
-      <c r="B751" s="5" t="s">
-        <v>1479</v>
-      </c>
       <c r="C751" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E751" s="5" t="s">
         <v>12</v>
@@ -25452,16 +25452,16 @@
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B752" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="B752" s="5" t="s">
-        <v>1481</v>
-      </c>
       <c r="C752" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E752" s="5" t="s">
         <v>12</v>
@@ -25478,16 +25478,16 @@
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A753" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B753" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="B753" s="5" t="s">
-        <v>1483</v>
-      </c>
       <c r="C753" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E753" s="5" t="s">
         <v>12</v>
@@ -25504,16 +25504,16 @@
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B754" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="B754" s="5" t="s">
-        <v>1485</v>
-      </c>
       <c r="C754" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E754" s="5" t="s">
         <v>12</v>
@@ -25530,16 +25530,16 @@
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A755" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B755" s="5" t="s">
         <v>1486</v>
       </c>
-      <c r="B755" s="5" t="s">
-        <v>1487</v>
-      </c>
       <c r="C755" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E755" s="5" t="s">
         <v>12</v>
@@ -25556,16 +25556,16 @@
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B756" s="5" t="s">
         <v>1488</v>
       </c>
-      <c r="B756" s="5" t="s">
-        <v>1489</v>
-      </c>
       <c r="C756" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E756" s="5" t="s">
         <v>12</v>
@@ -25582,16 +25582,16 @@
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B757" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="B757" s="5" t="s">
-        <v>1491</v>
-      </c>
       <c r="C757" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E757" s="5" t="s">
         <v>12</v>
@@ -25608,16 +25608,16 @@
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A758" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B758" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B758" s="5" t="s">
-        <v>1493</v>
-      </c>
       <c r="C758" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E758" s="5" t="s">
         <v>12</v>
@@ -25634,16 +25634,16 @@
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A759" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B759" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="B759" s="5" t="s">
-        <v>1495</v>
-      </c>
       <c r="C759" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E759" s="5" t="s">
         <v>12</v>
@@ -25660,16 +25660,16 @@
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A760" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B760" s="5" t="s">
         <v>1496</v>
       </c>
-      <c r="B760" s="5" t="s">
-        <v>1497</v>
-      </c>
       <c r="C760" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E760" s="5" t="s">
         <v>12</v>
@@ -25686,16 +25686,16 @@
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A761" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B761" s="5" t="s">
         <v>1498</v>
       </c>
-      <c r="B761" s="5" t="s">
-        <v>1499</v>
-      </c>
       <c r="C761" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E761" s="5" t="s">
         <v>12</v>
@@ -25712,16 +25712,16 @@
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A762" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B762" s="5" t="s">
         <v>1500</v>
       </c>
-      <c r="B762" s="5" t="s">
-        <v>1501</v>
-      </c>
       <c r="C762" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E762" s="5" t="s">
         <v>12</v>
@@ -25738,16 +25738,16 @@
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A763" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B763" s="5" t="s">
         <v>1502</v>
       </c>
-      <c r="B763" s="5" t="s">
-        <v>1503</v>
-      </c>
       <c r="C763" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E763" s="5" t="s">
         <v>12</v>
@@ -25764,16 +25764,16 @@
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A764" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B764" s="5" t="s">
         <v>1504</v>
       </c>
-      <c r="B764" s="5" t="s">
-        <v>1505</v>
-      </c>
       <c r="C764" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E764" s="5" t="s">
         <v>12</v>
@@ -25790,16 +25790,16 @@
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A765" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B765" s="5" t="s">
         <v>1506</v>
       </c>
-      <c r="B765" s="5" t="s">
-        <v>1507</v>
-      </c>
       <c r="C765" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D765" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E765" s="5" t="s">
         <v>12</v>
@@ -25816,16 +25816,16 @@
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A766" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B766" s="5" t="s">
         <v>1508</v>
       </c>
-      <c r="B766" s="5" t="s">
-        <v>1509</v>
-      </c>
       <c r="C766" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D766" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E766" s="5" t="s">
         <v>12</v>
@@ -25842,16 +25842,16 @@
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A767" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B767" s="5" t="s">
         <v>1510</v>
       </c>
-      <c r="B767" s="5" t="s">
-        <v>1511</v>
-      </c>
       <c r="C767" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D767" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E767" s="5" t="s">
         <v>12</v>
@@ -25868,16 +25868,16 @@
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A768" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B768" s="5" t="s">
         <v>1512</v>
       </c>
-      <c r="B768" s="5" t="s">
-        <v>1513</v>
-      </c>
       <c r="C768" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D768" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E768" s="5" t="s">
         <v>12</v>
@@ -25894,16 +25894,16 @@
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B769" s="5" t="s">
         <v>1514</v>
       </c>
-      <c r="B769" s="5" t="s">
-        <v>1515</v>
-      </c>
       <c r="C769" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D769" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E769" s="5" t="s">
         <v>12</v>
@@ -25920,16 +25920,16 @@
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B770" s="5" t="s">
         <v>1516</v>
       </c>
-      <c r="B770" s="5" t="s">
-        <v>1517</v>
-      </c>
       <c r="C770" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D770" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E770" s="5" t="s">
         <v>12</v>
@@ -25946,16 +25946,16 @@
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B771" s="5" t="s">
         <v>1518</v>
       </c>
-      <c r="B771" s="5" t="s">
-        <v>1519</v>
-      </c>
       <c r="C771" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D771" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E771" s="5" t="s">
         <v>12</v>
@@ -25972,16 +25972,16 @@
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B772" s="5" t="s">
         <v>1520</v>
       </c>
-      <c r="B772" s="5" t="s">
-        <v>1521</v>
-      </c>
       <c r="C772" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D772" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E772" s="5" t="s">
         <v>12</v>
@@ -25998,16 +25998,16 @@
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B773" s="5" t="s">
         <v>1522</v>
       </c>
-      <c r="B773" s="5" t="s">
-        <v>1523</v>
-      </c>
       <c r="C773" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D773" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E773" s="5" t="s">
         <v>12</v>
@@ -26024,16 +26024,16 @@
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B774" s="5" t="s">
         <v>1524</v>
       </c>
-      <c r="B774" s="5" t="s">
-        <v>1525</v>
-      </c>
       <c r="C774" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D774" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E774" s="5" t="s">
         <v>12</v>
@@ -26050,16 +26050,16 @@
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B775" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="B775" s="5" t="s">
-        <v>1527</v>
-      </c>
       <c r="C775" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D775" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E775" s="5" t="s">
         <v>12</v>
@@ -26076,16 +26076,16 @@
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B776" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="B776" s="5" t="s">
-        <v>1529</v>
-      </c>
       <c r="C776" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D776" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E776" s="5" t="s">
         <v>12</v>
@@ -26102,16 +26102,16 @@
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B777" s="5" t="s">
         <v>1530</v>
       </c>
-      <c r="B777" s="5" t="s">
-        <v>1531</v>
-      </c>
       <c r="C777" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D777" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E777" s="5" t="s">
         <v>12</v>
@@ -26128,16 +26128,16 @@
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B778" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="B778" s="5" t="s">
-        <v>1533</v>
-      </c>
       <c r="C778" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D778" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E778" s="5" t="s">
         <v>12</v>
@@ -26154,16 +26154,16 @@
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B779" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="B779" s="5" t="s">
-        <v>1535</v>
-      </c>
       <c r="C779" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D779" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E779" s="5" t="s">
         <v>12</v>
@@ -26180,16 +26180,16 @@
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B780" s="5" t="s">
         <v>1536</v>
       </c>
-      <c r="B780" s="5" t="s">
-        <v>1537</v>
-      </c>
       <c r="C780" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D780" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E780" s="5" t="s">
         <v>12</v>
@@ -26206,16 +26206,16 @@
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B781" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="B781" s="5" t="s">
-        <v>1539</v>
-      </c>
       <c r="C781" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D781" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E781" s="5" t="s">
         <v>12</v>
@@ -26232,16 +26232,16 @@
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B782" s="5" t="s">
         <v>1540</v>
       </c>
-      <c r="B782" s="5" t="s">
-        <v>1541</v>
-      </c>
       <c r="C782" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D782" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E782" s="5" t="s">
         <v>12</v>
@@ -26258,16 +26258,16 @@
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B783" s="5" t="s">
         <v>1542</v>
       </c>
-      <c r="B783" s="5" t="s">
-        <v>1543</v>
-      </c>
       <c r="C783" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D783" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E783" s="5" t="s">
         <v>12</v>
@@ -26284,16 +26284,16 @@
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B784" s="5" t="s">
         <v>1544</v>
       </c>
-      <c r="B784" s="5" t="s">
-        <v>1545</v>
-      </c>
       <c r="C784" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D784" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E784" s="5" t="s">
         <v>12</v>
@@ -26310,16 +26310,16 @@
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A785" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B785" s="5" t="s">
         <v>1546</v>
       </c>
-      <c r="B785" s="5" t="s">
-        <v>1547</v>
-      </c>
       <c r="C785" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D785" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E785" s="5" t="s">
         <v>12</v>
@@ -26336,16 +26336,16 @@
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A786" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B786" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="B786" s="5" t="s">
-        <v>1549</v>
-      </c>
       <c r="C786" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D786" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E786" s="5" t="s">
         <v>12</v>
@@ -26362,16 +26362,16 @@
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B787" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="B787" s="5" t="s">
-        <v>1551</v>
-      </c>
       <c r="C787" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D787" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E787" s="5" t="s">
         <v>12</v>
@@ -26388,16 +26388,16 @@
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A788" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B788" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="B788" s="5" t="s">
-        <v>1553</v>
-      </c>
       <c r="C788" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D788" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E788" s="5" t="s">
         <v>12</v>
@@ -26414,16 +26414,16 @@
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A789" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B789" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="B789" s="5" t="s">
-        <v>1555</v>
-      </c>
       <c r="C789" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D789" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E789" s="5" t="s">
         <v>12</v>
@@ -26440,16 +26440,16 @@
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A790" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B790" s="5" t="s">
         <v>1556</v>
       </c>
-      <c r="B790" s="5" t="s">
-        <v>1557</v>
-      </c>
       <c r="C790" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D790" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E790" s="5" t="s">
         <v>12</v>
@@ -26466,16 +26466,16 @@
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A791" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B791" s="5" t="s">
         <v>1558</v>
       </c>
-      <c r="B791" s="5" t="s">
-        <v>1559</v>
-      </c>
       <c r="C791" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D791" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E791" s="5" t="s">
         <v>12</v>
@@ -26492,16 +26492,16 @@
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A792" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B792" s="5" t="s">
         <v>1560</v>
       </c>
-      <c r="B792" s="5" t="s">
-        <v>1561</v>
-      </c>
       <c r="C792" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D792" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E792" s="5" t="s">
         <v>12</v>
@@ -26518,16 +26518,16 @@
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A793" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B793" s="5" t="s">
         <v>1562</v>
       </c>
-      <c r="B793" s="5" t="s">
-        <v>1563</v>
-      </c>
       <c r="C793" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D793" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E793" s="5" t="s">
         <v>12</v>
@@ -26544,16 +26544,16 @@
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B794" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="B794" s="5" t="s">
-        <v>1565</v>
-      </c>
       <c r="C794" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D794" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E794" s="5" t="s">
         <v>12</v>
@@ -26570,16 +26570,16 @@
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B795" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="B795" s="5" t="s">
-        <v>1567</v>
-      </c>
       <c r="C795" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D795" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E795" s="5" t="s">
         <v>12</v>
@@ -26596,16 +26596,16 @@
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A796" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B796" s="5" t="s">
         <v>1568</v>
       </c>
-      <c r="B796" s="5" t="s">
-        <v>1569</v>
-      </c>
       <c r="C796" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D796" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E796" s="5" t="s">
         <v>12</v>
@@ -26622,16 +26622,16 @@
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A797" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B797" s="5" t="s">
         <v>1570</v>
       </c>
-      <c r="B797" s="5" t="s">
-        <v>1571</v>
-      </c>
       <c r="C797" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D797" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E797" s="5" t="s">
         <v>12</v>
@@ -26648,16 +26648,16 @@
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A798" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B798" s="5" t="s">
         <v>1572</v>
       </c>
-      <c r="B798" s="5" t="s">
-        <v>1573</v>
-      </c>
       <c r="C798" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D798" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E798" s="5" t="s">
         <v>12</v>
@@ -26674,16 +26674,16 @@
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A799" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B799" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="B799" s="5" t="s">
-        <v>1575</v>
-      </c>
       <c r="C799" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D799" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E799" s="5" t="s">
         <v>12</v>
@@ -26700,16 +26700,16 @@
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A800" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B800" s="5" t="s">
         <v>1576</v>
       </c>
-      <c r="B800" s="5" t="s">
-        <v>1577</v>
-      </c>
       <c r="C800" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D800" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E800" s="5" t="s">
         <v>12</v>
@@ -26726,16 +26726,16 @@
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B801" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="B801" s="5" t="s">
-        <v>1579</v>
-      </c>
       <c r="C801" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D801" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E801" s="5" t="s">
         <v>12</v>
@@ -26752,16 +26752,16 @@
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B802" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="B802" s="5" t="s">
-        <v>1581</v>
-      </c>
       <c r="C802" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D802" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E802" s="5" t="s">
         <v>12</v>
@@ -26778,16 +26778,16 @@
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B803" s="5" t="s">
         <v>1582</v>
       </c>
-      <c r="B803" s="5" t="s">
-        <v>1583</v>
-      </c>
       <c r="C803" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D803" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E803" s="5" t="s">
         <v>12</v>
@@ -26804,16 +26804,16 @@
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B804" s="5" t="s">
         <v>1584</v>
       </c>
-      <c r="B804" s="5" t="s">
-        <v>1585</v>
-      </c>
       <c r="C804" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D804" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E804" s="5" t="s">
         <v>12</v>
@@ -26830,16 +26830,16 @@
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B805" s="5" t="s">
         <v>1586</v>
-      </c>
-      <c r="B805" s="5" t="s">
-        <v>1587</v>
       </c>
       <c r="C805" s="2">
         <v>60</v>
       </c>
       <c r="D805" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E805" s="5" t="s">
         <v>12</v>
@@ -26856,16 +26856,16 @@
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B806" s="5" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D806" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E806" s="5" t="s">
         <v>12</v>
@@ -26882,16 +26882,16 @@
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B807" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D807" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E807" s="5" t="s">
         <v>12</v>
@@ -26908,16 +26908,16 @@
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B808" s="5" t="s">
         <v>306</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D808" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E808" s="5" t="s">
         <v>12</v>
@@ -26934,16 +26934,16 @@
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B809" s="5" t="s">
         <v>308</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D809" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E809" s="5" t="s">
         <v>12</v>
@@ -26960,16 +26960,16 @@
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B810" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D810" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E810" s="5" t="s">
         <v>12</v>
@@ -26986,16 +26986,16 @@
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B811" s="5" t="s">
         <v>322</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D811" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E811" s="5" t="s">
         <v>12</v>
@@ -27012,16 +27012,16 @@
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B812" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D812" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E812" s="5" t="s">
         <v>12</v>
@@ -27038,16 +27038,16 @@
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B813" s="5" t="s">
         <v>336</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D813" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E813" s="5" t="s">
         <v>12</v>
@@ -27064,16 +27064,16 @@
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B814" s="5" t="s">
         <v>340</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D814" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E814" s="5" t="s">
         <v>12</v>
@@ -27090,16 +27090,16 @@
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B815" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D815" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E815" s="5" t="s">
         <v>12</v>
@@ -27116,16 +27116,16 @@
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B816" s="5" t="s">
         <v>344</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D816" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E816" s="5" t="s">
         <v>12</v>
@@ -27142,16 +27142,16 @@
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B817" s="5" t="s">
         <v>346</v>
       </c>
       <c r="C817" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D817" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E817" s="5" t="s">
         <v>12</v>
@@ -27168,16 +27168,16 @@
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A818" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B818" s="5" t="s">
         <v>348</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D818" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E818" s="5" t="s">
         <v>12</v>
@@ -27194,16 +27194,16 @@
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A819" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B819" s="5" t="s">
         <v>350</v>
       </c>
       <c r="C819" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D819" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E819" s="5" t="s">
         <v>12</v>
@@ -27220,16 +27220,16 @@
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A820" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B820" s="5" t="s">
         <v>352</v>
       </c>
       <c r="C820" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D820" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E820" s="5" t="s">
         <v>12</v>
@@ -27246,16 +27246,16 @@
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A821" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B821" s="5" t="s">
         <v>356</v>
       </c>
       <c r="C821" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D821" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E821" s="5" t="s">
         <v>12</v>
@@ -27272,16 +27272,16 @@
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A822" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B822" s="5" t="s">
         <v>354</v>
       </c>
       <c r="C822" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D822" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E822" s="5" t="s">
         <v>12</v>
@@ -27298,16 +27298,16 @@
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B823" s="5" t="s">
         <v>1605</v>
-      </c>
-      <c r="B823" s="5" t="s">
-        <v>1606</v>
       </c>
       <c r="C823" s="2">
         <v>60</v>
       </c>
       <c r="D823" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E823" s="5" t="s">
         <v>12</v>
@@ -27324,16 +27324,16 @@
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A824" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B824" s="5" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D824" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E824" s="5" t="s">
         <v>12</v>
@@ -27350,16 +27350,16 @@
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A825" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B825" s="5" t="s">
         <v>416</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D825" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E825" s="5" t="s">
         <v>12</v>
@@ -27376,16 +27376,16 @@
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A826" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B826" s="5" t="s">
         <v>418</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D826" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E826" s="5" t="s">
         <v>12</v>
@@ -27402,16 +27402,16 @@
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A827" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B827" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D827" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E827" s="5" t="s">
         <v>12</v>
@@ -27428,16 +27428,16 @@
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A828" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B828" s="5" t="s">
         <v>422</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D828" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E828" s="5" t="s">
         <v>12</v>
@@ -27454,16 +27454,16 @@
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A829" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B829" s="5" t="s">
         <v>424</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D829" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E829" s="5" t="s">
         <v>12</v>
@@ -27480,16 +27480,16 @@
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A830" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B830" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D830" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E830" s="5" t="s">
         <v>12</v>
@@ -27506,16 +27506,16 @@
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A831" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B831" s="5" t="s">
         <v>428</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D831" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E831" s="5" t="s">
         <v>12</v>
@@ -27532,16 +27532,16 @@
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A832" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B832" s="5" t="s">
         <v>430</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D832" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E832" s="5" t="s">
         <v>12</v>
@@ -27558,16 +27558,16 @@
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B833" s="5" t="s">
         <v>432</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D833" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E833" s="5" t="s">
         <v>12</v>
@@ -27584,16 +27584,16 @@
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B834" s="5" t="s">
         <v>434</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D834" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E834" s="5" t="s">
         <v>12</v>
@@ -27610,16 +27610,16 @@
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B835" s="5" t="s">
         <v>1618</v>
-      </c>
-      <c r="B835" s="5" t="s">
-        <v>1619</v>
       </c>
       <c r="C835" s="2">
         <v>60</v>
       </c>
       <c r="D835" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E835" s="5" t="s">
         <v>12</v>
@@ -27636,16 +27636,16 @@
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B836" s="5" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D836" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E836" s="5" t="s">
         <v>12</v>
@@ -27662,16 +27662,16 @@
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B837" s="5" t="s">
         <v>1621</v>
       </c>
-      <c r="B837" s="5" t="s">
-        <v>1622</v>
-      </c>
       <c r="C837" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D837" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E837" s="5" t="s">
         <v>12</v>
@@ -27688,16 +27688,16 @@
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B838" s="5" t="s">
         <v>1623</v>
       </c>
-      <c r="B838" s="5" t="s">
-        <v>1624</v>
-      </c>
       <c r="C838" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D838" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E838" s="5" t="s">
         <v>12</v>
@@ -27714,16 +27714,16 @@
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B839" s="5" t="s">
         <v>1625</v>
       </c>
-      <c r="B839" s="5" t="s">
-        <v>1626</v>
-      </c>
       <c r="C839" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D839" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E839" s="5" t="s">
         <v>12</v>
@@ -27740,16 +27740,16 @@
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B840" s="5" t="s">
         <v>1627</v>
       </c>
-      <c r="B840" s="5" t="s">
-        <v>1628</v>
-      </c>
       <c r="C840" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D840" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E840" s="5" t="s">
         <v>12</v>
@@ -27766,16 +27766,16 @@
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B841" s="5" t="s">
         <v>1629</v>
       </c>
-      <c r="B841" s="5" t="s">
-        <v>1630</v>
-      </c>
       <c r="C841" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D841" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E841" s="5" t="s">
         <v>12</v>
@@ -27792,16 +27792,16 @@
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B842" s="5" t="s">
         <v>1631</v>
       </c>
-      <c r="B842" s="5" t="s">
-        <v>1632</v>
-      </c>
       <c r="C842" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D842" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E842" s="5" t="s">
         <v>12</v>
@@ -27818,16 +27818,16 @@
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B843" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="B843" s="5" t="s">
-        <v>1634</v>
-      </c>
       <c r="C843" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D843" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E843" s="5" t="s">
         <v>12</v>
@@ -27844,16 +27844,16 @@
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B844" s="5" t="s">
         <v>1635</v>
       </c>
-      <c r="B844" s="5" t="s">
-        <v>1636</v>
-      </c>
       <c r="C844" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D844" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E844" s="5" t="s">
         <v>12</v>
@@ -27870,16 +27870,16 @@
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B845" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="B845" s="5" t="s">
-        <v>1638</v>
-      </c>
       <c r="C845" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D845" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E845" s="5" t="s">
         <v>12</v>
@@ -27896,16 +27896,16 @@
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B846" s="5" t="s">
         <v>1639</v>
       </c>
-      <c r="B846" s="5" t="s">
-        <v>1640</v>
-      </c>
       <c r="C846" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D846" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E846" s="5" t="s">
         <v>12</v>
@@ -27922,16 +27922,16 @@
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B847" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="B847" s="5" t="s">
-        <v>1642</v>
-      </c>
       <c r="C847" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D847" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E847" s="5" t="s">
         <v>12</v>
@@ -27948,16 +27948,16 @@
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B848" s="5" t="s">
         <v>1643</v>
-      </c>
-      <c r="B848" s="5" t="s">
-        <v>1644</v>
       </c>
       <c r="C848" s="2">
         <v>60</v>
       </c>
       <c r="D848" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E848" s="5" t="s">
         <v>479</v>
@@ -27974,16 +27974,16 @@
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B849" s="5" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C849" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D849" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E849" s="5" t="s">
         <v>479</v>
@@ -28000,16 +28000,16 @@
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B850" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="B850" s="5" t="s">
-        <v>1647</v>
-      </c>
       <c r="C850" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D850" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E850" s="5" t="s">
         <v>479</v>
@@ -28026,16 +28026,16 @@
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B851" s="5" t="s">
         <v>1648</v>
       </c>
-      <c r="B851" s="5" t="s">
-        <v>1649</v>
-      </c>
       <c r="C851" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D851" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E851" s="5" t="s">
         <v>479</v>
@@ -28052,16 +28052,16 @@
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B852" s="5" t="s">
         <v>1650</v>
       </c>
-      <c r="B852" s="5" t="s">
-        <v>1651</v>
-      </c>
       <c r="C852" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D852" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E852" s="5" t="s">
         <v>479</v>
@@ -28078,16 +28078,16 @@
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B853" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="B853" s="5" t="s">
-        <v>1653</v>
-      </c>
       <c r="C853" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D853" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E853" s="5" t="s">
         <v>479</v>
@@ -28104,16 +28104,16 @@
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B854" s="5" t="s">
         <v>1654</v>
       </c>
-      <c r="B854" s="5" t="s">
-        <v>1655</v>
-      </c>
       <c r="C854" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D854" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E854" s="5" t="s">
         <v>479</v>
@@ -28130,16 +28130,16 @@
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B855" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="B855" s="5" t="s">
-        <v>1657</v>
-      </c>
       <c r="C855" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D855" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E855" s="5" t="s">
         <v>479</v>
@@ -28156,16 +28156,16 @@
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B856" s="5" t="s">
         <v>1658</v>
       </c>
-      <c r="B856" s="5" t="s">
-        <v>1659</v>
-      </c>
       <c r="C856" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D856" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E856" s="5" t="s">
         <v>479</v>
@@ -28182,16 +28182,16 @@
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B857" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="B857" s="5" t="s">
-        <v>1661</v>
-      </c>
       <c r="C857" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D857" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E857" s="5" t="s">
         <v>479</v>
@@ -28208,16 +28208,16 @@
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B858" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="B858" s="5" t="s">
-        <v>1663</v>
-      </c>
       <c r="C858" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D858" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E858" s="5" t="s">
         <v>479</v>
@@ -28234,16 +28234,16 @@
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B859" s="5" t="s">
         <v>1664</v>
       </c>
-      <c r="B859" s="5" t="s">
-        <v>1665</v>
-      </c>
       <c r="C859" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D859" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E859" s="5" t="s">
         <v>479</v>
@@ -28260,16 +28260,16 @@
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B860" s="5" t="s">
         <v>1666</v>
-      </c>
-      <c r="B860" s="5" t="s">
-        <v>1667</v>
       </c>
       <c r="C860" s="2">
         <v>60</v>
       </c>
       <c r="D860" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E860" s="5" t="s">
         <v>12</v>
@@ -28286,16 +28286,16 @@
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B861" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="B861" s="5" t="s">
-        <v>1669</v>
-      </c>
       <c r="C861" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D861" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E861" s="5" t="s">
         <v>12</v>
@@ -28312,16 +28312,16 @@
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B862" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="B862" s="5" t="s">
-        <v>1671</v>
-      </c>
       <c r="C862" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D862" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E862" s="5" t="s">
         <v>12</v>
@@ -28338,16 +28338,16 @@
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B863" s="5" t="s">
         <v>1672</v>
       </c>
-      <c r="B863" s="5" t="s">
-        <v>1673</v>
-      </c>
       <c r="C863" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D863" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E863" s="5" t="s">
         <v>12</v>
@@ -28364,16 +28364,16 @@
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B864" s="5" t="s">
         <v>1674</v>
       </c>
-      <c r="B864" s="5" t="s">
-        <v>1675</v>
-      </c>
       <c r="C864" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D864" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E864" s="5" t="s">
         <v>12</v>
@@ -28390,16 +28390,16 @@
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B865" s="5" t="s">
         <v>1676</v>
       </c>
-      <c r="B865" s="5" t="s">
-        <v>1677</v>
-      </c>
       <c r="C865" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D865" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E865" s="5" t="s">
         <v>12</v>
@@ -28416,16 +28416,16 @@
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B866" s="5" t="s">
         <v>1678</v>
       </c>
-      <c r="B866" s="5" t="s">
-        <v>1679</v>
-      </c>
       <c r="C866" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D866" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E866" s="5" t="s">
         <v>12</v>
@@ -28442,16 +28442,16 @@
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B867" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="B867" s="5" t="s">
-        <v>1681</v>
-      </c>
       <c r="C867" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D867" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E867" s="5" t="s">
         <v>12</v>
@@ -28468,16 +28468,16 @@
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B868" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="B868" s="5" t="s">
-        <v>1683</v>
-      </c>
       <c r="C868" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D868" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E868" s="5" t="s">
         <v>12</v>
@@ -28494,16 +28494,16 @@
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B869" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="B869" s="5" t="s">
-        <v>1685</v>
-      </c>
       <c r="C869" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D869" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E869" s="5" t="s">
         <v>12</v>
@@ -28520,16 +28520,16 @@
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B870" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="B870" s="5" t="s">
-        <v>1687</v>
-      </c>
       <c r="C870" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D870" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E870" s="5" t="s">
         <v>12</v>
@@ -28546,16 +28546,16 @@
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B871" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="B871" s="5" t="s">
-        <v>1689</v>
-      </c>
       <c r="C871" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D871" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E871" s="5" t="s">
         <v>12</v>
@@ -28572,16 +28572,16 @@
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B872" s="5" t="s">
         <v>1690</v>
       </c>
-      <c r="B872" s="5" t="s">
-        <v>1691</v>
-      </c>
       <c r="C872" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D872" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E872" s="5" t="s">
         <v>12</v>
@@ -28598,16 +28598,16 @@
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B873" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="B873" s="5" t="s">
-        <v>1693</v>
-      </c>
       <c r="C873" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D873" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E873" s="5" t="s">
         <v>12</v>
@@ -28624,16 +28624,16 @@
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B874" s="5" t="s">
         <v>1694</v>
       </c>
-      <c r="B874" s="5" t="s">
-        <v>1695</v>
-      </c>
       <c r="C874" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D874" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E874" s="5" t="s">
         <v>12</v>
@@ -28650,16 +28650,16 @@
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B875" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="B875" s="5" t="s">
-        <v>1697</v>
-      </c>
       <c r="C875" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D875" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E875" s="5" t="s">
         <v>12</v>
@@ -28676,16 +28676,16 @@
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B876" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="B876" s="5" t="s">
-        <v>1699</v>
-      </c>
       <c r="C876" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D876" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E876" s="5" t="s">
         <v>12</v>
@@ -28702,16 +28702,16 @@
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B877" s="5" t="s">
         <v>1700</v>
       </c>
-      <c r="B877" s="5" t="s">
-        <v>1701</v>
-      </c>
       <c r="C877" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D877" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E877" s="5" t="s">
         <v>12</v>
@@ -28728,16 +28728,16 @@
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B878" s="5" t="s">
         <v>1702</v>
       </c>
-      <c r="B878" s="5" t="s">
-        <v>1703</v>
-      </c>
       <c r="C878" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D878" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E878" s="5" t="s">
         <v>12</v>
@@ -28754,16 +28754,16 @@
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B879" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="B879" s="5" t="s">
-        <v>1705</v>
-      </c>
       <c r="C879" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D879" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E879" s="5" t="s">
         <v>12</v>
@@ -28780,16 +28780,16 @@
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B880" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D880" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E880" s="5" t="s">
         <v>12</v>
@@ -28806,16 +28806,16 @@
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B881" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="B881" s="5" t="s">
-        <v>1708</v>
-      </c>
       <c r="C881" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D881" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E881" s="5" t="s">
         <v>479</v>
@@ -28832,16 +28832,16 @@
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B882" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="B882" s="5" t="s">
-        <v>1710</v>
-      </c>
       <c r="C882" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D882" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E882" s="5" t="s">
         <v>479</v>
@@ -28858,16 +28858,16 @@
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B883" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="B883" s="5" t="s">
-        <v>1712</v>
-      </c>
       <c r="C883" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D883" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E883" s="5" t="s">
         <v>479</v>
@@ -28884,16 +28884,16 @@
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B884" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="B884" s="5" t="s">
-        <v>1714</v>
-      </c>
       <c r="C884" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D884" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E884" s="5" t="s">
         <v>479</v>
@@ -28910,16 +28910,16 @@
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B885" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="B885" s="5" t="s">
-        <v>1716</v>
-      </c>
       <c r="C885" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D885" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E885" s="5" t="s">
         <v>479</v>
@@ -28936,16 +28936,16 @@
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B886" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="B886" s="5" t="s">
-        <v>1718</v>
-      </c>
       <c r="C886" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D886" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E886" s="5" t="s">
         <v>479</v>
@@ -28962,16 +28962,16 @@
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B887" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="B887" s="5" t="s">
-        <v>1720</v>
-      </c>
       <c r="C887" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D887" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E887" s="5" t="s">
         <v>479</v>
@@ -28988,16 +28988,16 @@
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B888" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="B888" s="5" t="s">
-        <v>1722</v>
-      </c>
       <c r="C888" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D888" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E888" s="5" t="s">
         <v>479</v>
@@ -29014,16 +29014,16 @@
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B889" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="B889" s="5" t="s">
-        <v>1724</v>
-      </c>
       <c r="C889" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D889" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E889" s="5" t="s">
         <v>479</v>
@@ -29040,16 +29040,16 @@
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B890" s="5" t="s">
         <v>1725</v>
       </c>
-      <c r="B890" s="5" t="s">
-        <v>1726</v>
-      </c>
       <c r="C890" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D890" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E890" s="5" t="s">
         <v>479</v>
@@ -29066,16 +29066,16 @@
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B891" s="5" t="s">
         <v>1727</v>
       </c>
-      <c r="B891" s="5" t="s">
-        <v>1728</v>
-      </c>
       <c r="C891" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D891" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E891" s="5" t="s">
         <v>479</v>
@@ -29092,16 +29092,16 @@
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B892" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="B892" s="5" t="s">
-        <v>1730</v>
-      </c>
       <c r="C892" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D892" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E892" s="5" t="s">
         <v>479</v>
@@ -29118,16 +29118,16 @@
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B893" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="B893" s="5" t="s">
-        <v>1732</v>
-      </c>
       <c r="C893" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D893" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E893" s="5" t="s">
         <v>479</v>
@@ -29144,16 +29144,16 @@
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B894" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="B894" s="5" t="s">
-        <v>1734</v>
-      </c>
       <c r="C894" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D894" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E894" s="5" t="s">
         <v>479</v>
@@ -29170,16 +29170,16 @@
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B895" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="B895" s="5" t="s">
-        <v>1736</v>
-      </c>
       <c r="C895" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D895" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E895" s="5" t="s">
         <v>479</v>
@@ -29196,16 +29196,16 @@
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B896" s="5" t="s">
         <v>1737</v>
       </c>
-      <c r="B896" s="5" t="s">
-        <v>1738</v>
-      </c>
       <c r="C896" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D896" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E896" s="5" t="s">
         <v>479</v>
@@ -29222,16 +29222,16 @@
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B897" s="5" t="s">
         <v>1739</v>
       </c>
-      <c r="B897" s="5" t="s">
-        <v>1740</v>
-      </c>
       <c r="C897" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D897" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E897" s="5" t="s">
         <v>479</v>
@@ -29248,16 +29248,16 @@
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B898" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="B898" s="5" t="s">
-        <v>1742</v>
-      </c>
       <c r="C898" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D898" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E898" s="5" t="s">
         <v>479</v>
@@ -29274,16 +29274,16 @@
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B899" s="5" t="s">
         <v>1743</v>
       </c>
-      <c r="B899" s="5" t="s">
-        <v>1744</v>
-      </c>
       <c r="C899" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D899" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E899" s="5" t="s">
         <v>479</v>
@@ -29300,16 +29300,16 @@
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B900" s="5" t="s">
         <v>1745</v>
       </c>
-      <c r="B900" s="5" t="s">
-        <v>1746</v>
-      </c>
       <c r="C900" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D900" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E900" s="5" t="s">
         <v>479</v>
@@ -29326,16 +29326,16 @@
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B901" s="5" t="s">
         <v>1371</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D901" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E901" s="5" t="s">
         <v>479</v>
@@ -29352,16 +29352,16 @@
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B902" s="5" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D902" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E902" s="5" t="s">
         <v>479</v>
@@ -29378,16 +29378,16 @@
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B903" s="5" t="s">
         <v>1749</v>
-      </c>
-      <c r="B903" s="5" t="s">
-        <v>1750</v>
       </c>
       <c r="C903" s="2">
         <v>60</v>
       </c>
       <c r="D903" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E903" s="5" t="s">
         <v>12</v>
@@ -29404,16 +29404,16 @@
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B904" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="B904" s="5" t="s">
-        <v>1752</v>
-      </c>
       <c r="C904" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D904" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E904" s="5" t="s">
         <v>12</v>
@@ -29430,16 +29430,16 @@
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B905" s="5" t="s">
         <v>1753</v>
       </c>
-      <c r="B905" s="5" t="s">
-        <v>1754</v>
-      </c>
       <c r="C905" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D905" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E905" s="5" t="s">
         <v>12</v>
@@ -29456,16 +29456,16 @@
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B906" s="5" t="s">
         <v>1755</v>
       </c>
-      <c r="B906" s="5" t="s">
-        <v>1756</v>
-      </c>
       <c r="C906" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D906" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E906" s="5" t="s">
         <v>12</v>
@@ -29482,16 +29482,16 @@
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B907" s="5" t="s">
         <v>1757</v>
       </c>
-      <c r="B907" s="5" t="s">
-        <v>1758</v>
-      </c>
       <c r="C907" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D907" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E907" s="5" t="s">
         <v>12</v>
@@ -29508,16 +29508,16 @@
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B908" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="B908" s="5" t="s">
-        <v>1760</v>
-      </c>
       <c r="C908" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D908" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E908" s="5" t="s">
         <v>12</v>
@@ -29534,16 +29534,16 @@
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B909" s="5" t="s">
         <v>466</v>
       </c>
       <c r="C909" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D909" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E909" s="5" t="s">
         <v>12</v>
@@ -29560,16 +29560,16 @@
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B910" s="5" t="s">
         <v>1762</v>
       </c>
-      <c r="B910" s="5" t="s">
-        <v>1763</v>
-      </c>
       <c r="C910" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D910" s="5" t="s">
-        <v>1384</v>
+        <v>1846</v>
       </c>
       <c r="E910" s="5" t="s">
         <v>12</v>
@@ -29589,11 +29589,11 @@
         <v>80</v>
       </c>
       <c r="B911" s="5" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E911" s="5" t="s">
         <v>12</v>
@@ -29610,16 +29610,16 @@
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B912" s="5" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C912" s="2">
         <v>80</v>
       </c>
       <c r="D912" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E912" s="5" t="s">
         <v>12</v>
@@ -29636,16 +29636,16 @@
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B913" s="5" t="s">
         <v>1767</v>
       </c>
-      <c r="B913" s="5" t="s">
-        <v>1768</v>
-      </c>
       <c r="C913" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D913" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E913" s="5" t="s">
         <v>12</v>
@@ -29662,16 +29662,16 @@
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B914" s="5" t="s">
         <v>1769</v>
       </c>
-      <c r="B914" s="5" t="s">
-        <v>1770</v>
-      </c>
       <c r="C914" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D914" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E914" s="5" t="s">
         <v>12</v>
@@ -29688,16 +29688,16 @@
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B915" s="5" t="s">
         <v>1771</v>
       </c>
-      <c r="B915" s="5" t="s">
-        <v>1772</v>
-      </c>
       <c r="C915" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D915" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E915" s="5" t="s">
         <v>479</v>
@@ -29714,16 +29714,16 @@
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B916" s="5" t="s">
         <v>1773</v>
       </c>
-      <c r="B916" s="5" t="s">
-        <v>1774</v>
-      </c>
       <c r="C916" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D916" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E916" s="5" t="s">
         <v>479</v>
@@ -29740,16 +29740,16 @@
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B917" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="B917" s="5" t="s">
-        <v>1776</v>
-      </c>
       <c r="C917" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D917" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E917" s="5" t="s">
         <v>12</v>
@@ -29766,16 +29766,16 @@
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B918" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="B918" s="5" t="s">
-        <v>1778</v>
-      </c>
       <c r="C918" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D918" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E918" s="5" t="s">
         <v>479</v>
@@ -29792,16 +29792,16 @@
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B919" s="5" t="s">
         <v>1779</v>
       </c>
-      <c r="B919" s="5" t="s">
-        <v>1780</v>
-      </c>
       <c r="C919" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D919" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E919" s="5" t="s">
         <v>479</v>
@@ -29818,16 +29818,16 @@
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B920" s="5" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C920" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D920" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E920" s="5" t="s">
         <v>12</v>
@@ -29844,16 +29844,16 @@
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B921" s="5" t="s">
         <v>1782</v>
       </c>
-      <c r="B921" s="5" t="s">
-        <v>1783</v>
-      </c>
       <c r="C921" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D921" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E921" s="5" t="s">
         <v>479</v>
@@ -29870,16 +29870,16 @@
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B922" s="5" t="s">
         <v>1784</v>
       </c>
-      <c r="B922" s="5" t="s">
-        <v>1785</v>
-      </c>
       <c r="C922" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D922" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E922" s="5" t="s">
         <v>479</v>
@@ -29896,16 +29896,16 @@
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B923" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="B923" s="5" t="s">
-        <v>1787</v>
-      </c>
       <c r="C923" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D923" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E923" s="5" t="s">
         <v>12</v>
@@ -29922,16 +29922,16 @@
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B924" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="B924" s="5" t="s">
-        <v>1789</v>
-      </c>
       <c r="C924" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D924" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E924" s="5" t="s">
         <v>479</v>
@@ -29948,16 +29948,16 @@
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B925" s="5" t="s">
         <v>1790</v>
       </c>
-      <c r="B925" s="5" t="s">
-        <v>1791</v>
-      </c>
       <c r="C925" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D925" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E925" s="5" t="s">
         <v>479</v>
@@ -29974,16 +29974,16 @@
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B926" s="5" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D926" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E926" s="5" t="s">
         <v>12</v>
@@ -30000,16 +30000,16 @@
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B927" s="5" t="s">
         <v>1793</v>
       </c>
-      <c r="B927" s="5" t="s">
-        <v>1794</v>
-      </c>
       <c r="C927" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D927" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E927" s="5" t="s">
         <v>479</v>
@@ -30026,16 +30026,16 @@
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B928" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="B928" s="5" t="s">
-        <v>1796</v>
-      </c>
       <c r="C928" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D928" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E928" s="5" t="s">
         <v>479</v>
@@ -30052,16 +30052,16 @@
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B929" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="B929" s="5" t="s">
-        <v>1798</v>
-      </c>
       <c r="C929" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D929" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E929" s="5" t="s">
         <v>12</v>
@@ -30078,16 +30078,16 @@
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B930" s="5" t="s">
         <v>1799</v>
       </c>
-      <c r="B930" s="5" t="s">
-        <v>1800</v>
-      </c>
       <c r="C930" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D930" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E930" s="5" t="s">
         <v>479</v>
@@ -30104,16 +30104,16 @@
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B931" s="5" t="s">
         <v>1801</v>
       </c>
-      <c r="B931" s="5" t="s">
-        <v>1802</v>
-      </c>
       <c r="C931" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D931" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E931" s="5" t="s">
         <v>479</v>
@@ -30130,16 +30130,16 @@
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B932" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D932" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E932" s="5" t="s">
         <v>12</v>
@@ -30156,16 +30156,16 @@
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B933" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="B933" s="5" t="s">
-        <v>1805</v>
-      </c>
       <c r="C933" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D933" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E933" s="5" t="s">
         <v>479</v>
@@ -30182,16 +30182,16 @@
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B934" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="B934" s="5" t="s">
-        <v>1807</v>
-      </c>
       <c r="C934" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D934" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E934" s="5" t="s">
         <v>479</v>
@@ -30208,16 +30208,16 @@
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B935" s="5" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D935" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E935" s="5" t="s">
         <v>12</v>
@@ -30234,16 +30234,16 @@
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B936" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="B936" s="5" t="s">
-        <v>1810</v>
-      </c>
       <c r="C936" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D936" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E936" s="5" t="s">
         <v>479</v>
@@ -30260,16 +30260,16 @@
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B937" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="B937" s="5" t="s">
-        <v>1812</v>
-      </c>
       <c r="C937" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D937" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E937" s="5" t="s">
         <v>479</v>
@@ -30286,16 +30286,16 @@
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D938" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E938" s="5" t="s">
         <v>12</v>
@@ -30312,16 +30312,16 @@
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B939" s="5" t="s">
         <v>1814</v>
       </c>
-      <c r="B939" s="5" t="s">
-        <v>1815</v>
-      </c>
       <c r="C939" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D939" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E939" s="5" t="s">
         <v>479</v>
@@ -30338,16 +30338,16 @@
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B940" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="B940" s="5" t="s">
-        <v>1817</v>
-      </c>
       <c r="C940" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D940" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E940" s="5" t="s">
         <v>479</v>
@@ -30364,16 +30364,16 @@
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B941" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C941" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D941" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E941" s="5" t="s">
         <v>12</v>
@@ -30390,16 +30390,16 @@
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B942" s="5" t="s">
         <v>1819</v>
       </c>
-      <c r="B942" s="5" t="s">
-        <v>1820</v>
-      </c>
       <c r="C942" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D942" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E942" s="5" t="s">
         <v>479</v>
@@ -30416,16 +30416,16 @@
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B943" s="5" t="s">
         <v>1821</v>
       </c>
-      <c r="B943" s="5" t="s">
-        <v>1822</v>
-      </c>
       <c r="C943" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D943" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E943" s="5" t="s">
         <v>479</v>
@@ -30442,16 +30442,16 @@
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C944" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D944" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E944" s="5" t="s">
         <v>12</v>
@@ -30468,16 +30468,16 @@
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B945" s="5" t="s">
         <v>1824</v>
       </c>
-      <c r="B945" s="5" t="s">
-        <v>1825</v>
-      </c>
       <c r="C945" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D945" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E945" s="5" t="s">
         <v>479</v>
@@ -30494,16 +30494,16 @@
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B946" s="5" t="s">
         <v>1826</v>
       </c>
-      <c r="B946" s="5" t="s">
-        <v>1827</v>
-      </c>
       <c r="C946" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D946" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E946" s="5" t="s">
         <v>479</v>
@@ -30520,16 +30520,16 @@
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B947" s="5" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C947" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D947" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E947" s="5" t="s">
         <v>12</v>
@@ -30546,16 +30546,16 @@
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B948" s="5" t="s">
         <v>1829</v>
       </c>
-      <c r="B948" s="5" t="s">
-        <v>1830</v>
-      </c>
       <c r="C948" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D948" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E948" s="5" t="s">
         <v>479</v>
@@ -30572,16 +30572,16 @@
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B949" s="5" t="s">
         <v>1831</v>
       </c>
-      <c r="B949" s="5" t="s">
-        <v>1832</v>
-      </c>
       <c r="C949" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D949" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E949" s="5" t="s">
         <v>479</v>
@@ -30598,16 +30598,16 @@
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B950" s="5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C950" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D950" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E950" s="5" t="s">
         <v>12</v>
@@ -30624,16 +30624,16 @@
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B951" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="B951" s="5" t="s">
-        <v>1835</v>
-      </c>
       <c r="C951" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D951" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E951" s="5" t="s">
         <v>479</v>
@@ -30650,16 +30650,16 @@
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B952" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="B952" s="5" t="s">
-        <v>1837</v>
-      </c>
       <c r="C952" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D952" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E952" s="5" t="s">
         <v>479</v>
@@ -30676,16 +30676,16 @@
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B953" s="5" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C953" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D953" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E953" s="5" t="s">
         <v>12</v>
@@ -30702,16 +30702,16 @@
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B954" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="B954" s="5" t="s">
-        <v>1840</v>
-      </c>
       <c r="C954" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D954" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E954" s="5" t="s">
         <v>479</v>
@@ -30728,16 +30728,16 @@
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B955" s="5" t="s">
         <v>1841</v>
       </c>
-      <c r="B955" s="5" t="s">
-        <v>1842</v>
-      </c>
       <c r="C955" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D955" s="5" t="s">
-        <v>19</v>
+        <v>1764</v>
       </c>
       <c r="E955" s="5" t="s">
         <v>479</v>
@@ -30751,16 +30751,16 @@
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C956" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D956" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E956" s="5" t="s">
         <v>12</v>
@@ -30774,16 +30774,16 @@
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B957" s="5" t="s">
         <v>1844</v>
       </c>
-      <c r="B957" s="5" t="s">
-        <v>1845</v>
-      </c>
       <c r="C957" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D957" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E957" s="5" t="s">
         <v>479</v>
